--- a/ALGO Development Requirement Document - Template.xlsx
+++ b/ALGO Development Requirement Document - Template.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="template 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sample template 1" sheetId="1" r:id="rId1"/>
     <sheet name="template 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>tem</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
   <si>
     <t>Signal based Entry/Exit:</t>
   </si>
@@ -61,15 +58,9 @@
     <t>BN Future RSI Strategy</t>
   </si>
   <si>
-    <t>This is used for communications.</t>
-  </si>
-  <si>
     <t>Indicator details</t>
   </si>
   <si>
-    <t>RSI</t>
-  </si>
-  <si>
     <t>Indicator 1:</t>
   </si>
   <si>
@@ -82,23 +73,110 @@
     <t>Entry:</t>
   </si>
   <si>
-    <t>Entry(BUY) Signal details</t>
-  </si>
-  <si>
-    <t>RSI crossover from below 40 to above 40</t>
-  </si>
-  <si>
-    <t>Conditions:</t>
-  </si>
-  <si>
-    <t>Buy</t>
+    <t>Number of lots shoud be configurable</t>
+  </si>
+  <si>
+    <t>All the open positions should be closed by 3:20PM</t>
+  </si>
+  <si>
+    <t>RSI (Relative Strength Index_</t>
+  </si>
+  <si>
+    <t>Position should be taken only afer candle close</t>
+  </si>
+  <si>
+    <t>BUY Signal</t>
+  </si>
+  <si>
+    <t>SELL Signal</t>
+  </si>
+  <si>
+    <t>ATR (9 period should be considered as TSL)</t>
+  </si>
+  <si>
+    <t>Trailing Stoploss(TSL)</t>
+  </si>
+  <si>
+    <t>Conditions(Necessary for the ALGO )</t>
+  </si>
+  <si>
+    <t>To take LONG</t>
+  </si>
+  <si>
+    <t>To take SHORT</t>
+  </si>
+  <si>
+    <t>Exit method 1:</t>
+  </si>
+  <si>
+    <t>Exit method 2:</t>
+  </si>
+  <si>
+    <t>RSI 65 crossunder (e.g from above 65 to below 65</t>
+  </si>
+  <si>
+    <t>RSI 65 touches</t>
+  </si>
+  <si>
+    <t>RSI 35 crossover (e.g from below 35 to above 35)</t>
+  </si>
+  <si>
+    <t>RSI 35 touches</t>
+  </si>
+  <si>
+    <t>Stoploss should be placed with 100 points immediately after Entry.</t>
+  </si>
+  <si>
+    <t>TSL hit exit (mention above TSL condition)</t>
+  </si>
+  <si>
+    <t>Time based Entry/Exit:</t>
+  </si>
+  <si>
+    <t>Banknifty OPTION</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>No indicator: But Time based entry:</t>
+  </si>
+  <si>
+    <t>BN Option Strategy - SHORT STRADDLE</t>
+  </si>
+  <si>
+    <t>Entry Signal details</t>
+  </si>
+  <si>
+    <t>Exit Signal details</t>
+  </si>
+  <si>
+    <t>At 9:30AM SELL ATM CALL &amp; ATM PUT BOTH</t>
+  </si>
+  <si>
+    <t>Stoploss should be placed with 50% of the SELL points immediately after Entry.</t>
+  </si>
+  <si>
+    <t>NO Trailing</t>
+  </si>
+  <si>
+    <t>As position will be closed automatically by 3:20PM (As entioned above)</t>
+  </si>
+  <si>
+    <t>OR It will be closed automatically when it hit above % stop-loss</t>
+  </si>
+  <si>
+    <t>Exit method 3:</t>
+  </si>
+  <si>
+    <t>Daily maximum MTM loss per lot should be 3000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,13 +184,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,11 +231,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F24"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,163 +530,424 @@
     <col min="2" max="2" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>3</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A21:F21"/>
+  <mergeCells count="6">
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A24:F24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A27:F27"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ALGO Development Requirement Document - Template.xlsx
+++ b/ALGO Development Requirement Document - Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample template 1" sheetId="1" r:id="rId1"/>
@@ -233,11 +233,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,7 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -531,19 +531,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -578,22 +578,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -612,14 +612,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -641,14 +641,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -683,14 +683,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -701,14 +701,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,19 +766,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -813,22 +813,22 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -836,14 +836,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -854,14 +854,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -888,14 +888,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -906,14 +906,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -941,12 +941,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A27:F27"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A14:F14"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
